--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D92BD-4D3F-4B43-8C43-554FE68D721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B6DB7A-E15D-44B2-9149-9F0723CD5A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +298,14 @@
       <color theme="10"/>
       <name val="Courier"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -676,7 +684,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -688,21 +696,7 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -756,28 +750,6 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -842,6 +814,28 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -932,8 +926,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E3" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E4" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E4" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -946,26 +940,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F3" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:F3" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F4" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F4" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
-    <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0E168449-32EF-450B-812C-11DC4F0F3A30}" name="Tasa de Interés Objetivo" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EE5A2D13-088C-4226-A754-1A001EC14095}" name="TIIE 28 días" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{91C093C9-2029-4DE0-AF73-BB6DB79C251D}" name="TIIE 91 días" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B133AA74-E94C-4608-8061-B6BA564978B5}" name="TIIE 182 días" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{0E168449-32EF-450B-812C-11DC4F0F3A30}" name="Tasa de Interés Objetivo" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{EE5A2D13-088C-4226-A754-1A001EC14095}" name="TIIE 28 días" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{91C093C9-2029-4DE0-AF73-BB6DB79C251D}" name="TIIE 91 días" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B133AA74-E94C-4608-8061-B6BA564978B5}" name="TIIE 182 días" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
-    <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{772F16E4-347C-44C5-ACC4-C16C0185C7B0}" name="Tasa de Interés Objetivo Banxico"/>
     <tableColumn id="4" xr3:uid="{5355F4FC-28EC-4FFA-B3F8-C7F7D2ED6257}" name="TIIE 28 días"/>
     <tableColumn id="5" xr3:uid="{8F2A0142-D5F1-4DBA-99E4-CD6E3D7E7363}" name="TIIE 91 días"/>
@@ -980,19 +974,19 @@
   <autoFilter ref="A1:N2" xr:uid="{41D25D3A-81CA-4450-B7DF-F71343E59E89}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{4B709A46-FEF4-4082-A1C7-4443452E16C3}" name="Año"/>
-    <tableColumn id="2" xr3:uid="{288E25E9-721A-4984-9062-39446AEF10A2}" name="Fecha" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{B14E5478-3494-4D1C-8F7A-C3666CA59C27}" name="SOFR" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{BA101BB9-5BDD-49C2-A01D-82F8C1F40DE3}" name="1M Treasury" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{7FE75A9A-7044-4B06-B3A6-F01D3A56E2C5}" name="3M Treasury" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{602D7FBF-E731-4F49-9A0B-6365C780F089}" name="6M Treasury" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{7887EB81-463F-4BB8-9E84-4229D2CAC9A1}" name="1Y Treasury" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{8C5475BF-3FF2-497D-B569-0B378CC77D79}" name="2Y Treasury" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{3B424ABE-EF8F-498A-8F4F-7FDBD990A429}" name="3Y Treasury" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{383F89E5-27BF-4792-BA7B-6E4263B946C9}" name="5Y Treasury" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{A94CC5AD-A6E2-4E44-AAAF-147E46B23BA1}" name="7Y Treasury" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{BA073A53-DD09-4842-A47E-B2F4D2CD2F0B}" name="10Y Treasury" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{0AB1292E-1821-4704-ACB3-22F12D9A1EBD}" name="20Y Treasury" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{FCEEF9DA-C290-458F-AEF1-C46CBE6DCD16}" name="30Y Treasury" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{288E25E9-721A-4984-9062-39446AEF10A2}" name="Fecha" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B14E5478-3494-4D1C-8F7A-C3666CA59C27}" name="SOFR" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BA101BB9-5BDD-49C2-A01D-82F8C1F40DE3}" name="1M Treasury" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{7FE75A9A-7044-4B06-B3A6-F01D3A56E2C5}" name="3M Treasury" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{602D7FBF-E731-4F49-9A0B-6365C780F089}" name="6M Treasury" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{7887EB81-463F-4BB8-9E84-4229D2CAC9A1}" name="1Y Treasury" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{8C5475BF-3FF2-497D-B569-0B378CC77D79}" name="2Y Treasury" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{3B424ABE-EF8F-498A-8F4F-7FDBD990A429}" name="3Y Treasury" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{383F89E5-27BF-4792-BA7B-6E4263B946C9}" name="5Y Treasury" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{A94CC5AD-A6E2-4E44-AAAF-147E46B23BA1}" name="7Y Treasury" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{BA073A53-DD09-4842-A47E-B2F4D2CD2F0B}" name="10Y Treasury" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{0AB1292E-1821-4704-ACB3-22F12D9A1EBD}" name="20Y Treasury" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{FCEEF9DA-C290-458F-AEF1-C46CBE6DCD16}" name="30Y Treasury" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,17 +997,17 @@
   <autoFilter ref="A1:H3" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
-    <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{1D145B8D-1465-4EF3-BECF-49ACE623BEC5}" name="Dow Jones"/>
     <tableColumn id="4" xr3:uid="{F2357A84-5C07-4E65-841A-42DAECACF403}" name="S&amp;P 500"/>
     <tableColumn id="5" xr3:uid="{388751CA-0A21-4A09-8009-2BB8B01233CE}" name="Nasdaq"/>
-    <tableColumn id="6" xr3:uid="{DEF693B5-3B7C-424D-8BCC-52947BCEC3CF}" name="% Dow Jones" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{DEF693B5-3B7C-424D-8BCC-52947BCEC3CF}" name="% Dow Jones" dataDxfId="2">
       <calculatedColumnFormula>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C1)/C1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A64DA0F4-44F9-4388-B98F-ED267001BCC9}" name="% S&amp;P500" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{A64DA0F4-44F9-4388-B98F-ED267001BCC9}" name="% S&amp;P500" dataDxfId="1">
       <calculatedColumnFormula>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D1)/D1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9B8FC688-A5F6-4240-9AD9-64ED7FF46AD3}" name="% Nasdaq" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{9B8FC688-A5F6-4240-9AD9-64ED7FF46AD3}" name="% Nasdaq" dataDxfId="0">
       <calculatedColumnFormula>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E1)/E1,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1318,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,7 +1346,7 @@
       <c r="A2">
         <v>2025</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>45960</v>
       </c>
       <c r="C2" s="2">
@@ -1369,7 +1363,7 @@
       <c r="A3">
         <v>2025</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="1">
         <v>45961</v>
       </c>
       <c r="C3" s="2">
@@ -1380,6 +1374,23 @@
       </c>
       <c r="E3" s="2">
         <v>18.545999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.483499999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18.512</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18.466999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1392,10 +1403,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FE10B-CC5B-4887-BA9F-8638E71CB003}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.9500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1426,10 +1543,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="1">
         <v>45960</v>
       </c>
       <c r="C2" s="3">
@@ -1446,10 +1563,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="20">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="1">
         <v>45961</v>
       </c>
       <c r="C3" s="3">
@@ -1465,86 +1582,23 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="20">
-        <v>45960</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C4" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D2" s="3">
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>7.9500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="20">
-        <v>45961</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -1561,7 +1615,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,90 +1671,90 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="1">
         <v>45960</v>
       </c>
       <c r="C2" s="7">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="4">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="4">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="4">
         <v>3.61E-2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="4">
         <v>3.61E-2</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="4">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="4">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="4">
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="1">
         <v>45961</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="4">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="4">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="4">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="4">
         <v>4.65E-2</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="4">
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
@@ -1716,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1752,19 +1806,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="1">
         <v>45960</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2">
         <v>47522.12109375</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2">
         <v>6822.33984375</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2">
         <v>23581.140625</v>
       </c>
       <c r="F2" s="5" t="str">
@@ -1781,19 +1835,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="1">
         <v>45961</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3">
         <v>47562.87109375</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3">
         <v>6840.2001953125</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>23724.9609375</v>
       </c>
       <c r="F3" s="5">
@@ -1823,7 +1877,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,13 +1945,13 @@
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="1">
         <v>45901</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="4">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="4">
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
@@ -1973,16 +2027,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="1">
         <v>45901</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="4">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="4">
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
@@ -2022,33 +2076,33 @@
       <c r="A2">
         <v>2025</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="1">
         <v>45960</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0.04</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="1">
         <v>45961</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="D3" s="8">
         <v>0.04</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B6DB7A-E15D-44B2-9149-9F0723CD5A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFA7AA8-BDE4-429D-9B5A-49D2306D71A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,8 +494,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -630,6 +636,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -684,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -697,6 +716,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -993,8 +1014,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1405,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FE10B-CC5B-4887-BA9F-8638E71CB003}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1512,7 +1533,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1863,11 +1884,41 @@
         <v>6.0989548719083643E-3</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45964</v>
+      </c>
+      <c r="C4">
+        <v>47336.68</v>
+      </c>
+      <c r="D4">
+        <v>6851.97</v>
+      </c>
+      <c r="E4">
+        <v>23834.720000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C3)/C3,"")</f>
+        <v>-4.7556232108898564E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D3)/D3,"")</f>
+        <v>1.7206813180067374E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E3)/E3,"")</f>
+        <v>4.6263116212981606E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2047,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB728CC-3545-439B-8305-CE331A9F0964}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,6 +2157,23 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45964</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFA7AA8-BDE4-429D-9B5A-49D2306D71A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159EFAD5-81E5-4F22-8CE5-20EDEDF0D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -716,7 +716,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
@@ -1633,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B7A3E5-7422-42F6-B226-5BFEA691299B}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,6 +1780,17 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="12">
+        <v>45964</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1791,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159EFAD5-81E5-4F22-8CE5-20EDEDF0D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2893D0E1-AFDC-45DB-B09F-AE507E577761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -718,7 +718,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -962,8 +963,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F4" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F4" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F5" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -977,8 +978,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1427,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FE10B-CC5B-4887-BA9F-8638E71CB003}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1518,6 +1519,26 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
     </row>
@@ -1531,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1626,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="12">
         <v>2025</v>
       </c>
       <c r="B4" s="1">
@@ -1622,6 +1643,26 @@
       </c>
       <c r="F4" s="3">
         <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -1636,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B7A3E5-7422-42F6-B226-5BFEA691299B}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,11 +1825,44 @@
       <c r="A4">
         <v>2025</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>45964</v>
       </c>
       <c r="C4" s="4">
         <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3.61E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3.7200000000000004E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4.1299999999999996E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4.6900000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1878,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,26 +1977,26 @@
       <c r="B4" s="11">
         <v>45964</v>
       </c>
-      <c r="C4">
-        <v>47336.68</v>
-      </c>
-      <c r="D4">
-        <v>6851.97</v>
-      </c>
-      <c r="E4">
-        <v>23834.720000000001</v>
+      <c r="C4" s="13">
+        <v>47336.6796875</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6851.97021484375</v>
+      </c>
+      <c r="E4" s="13">
+        <v>23834.720703125</v>
       </c>
       <c r="F4" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C3)/C3,"")</f>
-        <v>-4.7556232108898564E-3</v>
+        <v>-4.7556297811408334E-3</v>
       </c>
       <c r="G4" s="5">
         <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D3)/D3,"")</f>
-        <v>1.7206813180067374E-3</v>
+        <v>1.7207127269923826E-3</v>
       </c>
       <c r="H4" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E3)/E3,"")</f>
-        <v>4.6263116212981606E-3</v>
+        <v>4.6263412578063387E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2187,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2893D0E1-AFDC-45DB-B09F-AE507E577761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20C543-EE98-46CA-9729-71B10A836BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -718,8 +718,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -949,8 +958,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E4" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E4" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E5" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E5" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -963,8 +972,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F5" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F6" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F6" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -978,8 +987,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1016,8 +1025,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1335,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,6 +1425,23 @@
         <v>18.466999999999999</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="15">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18.613299999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18.663</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18.587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1428,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FE10B-CC5B-4887-BA9F-8638E71CB003}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1546,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>2025</v>
       </c>
       <c r="B5" s="1">
@@ -1537,6 +1563,26 @@
       </c>
       <c r="F5" s="3">
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="17">
+        <v>45966</v>
+      </c>
+      <c r="C6" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1552,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,7 +1672,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4">
         <v>2025</v>
       </c>
       <c r="B4" s="1">
@@ -1646,7 +1692,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>2025</v>
       </c>
       <c r="B5" s="1">
@@ -1663,6 +1709,26 @@
       </c>
       <c r="F5" s="3">
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="17">
+        <v>45966</v>
+      </c>
+      <c r="C6" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1675,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B7A3E5-7422-42F6-B226-5BFEA691299B}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,6 +1931,50 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.0199999999999993E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.9599999999999996E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.78E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.6699999999999997E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4.6500000000000007E-2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1875,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1977,13 +2087,13 @@
       <c r="B4" s="11">
         <v>45964</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>47336.6796875</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4">
         <v>6851.97021484375</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4">
         <v>23834.720703125</v>
       </c>
       <c r="F4" s="5">
@@ -1997,6 +2107,35 @@
       <c r="H4" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E3)/E3,"")</f>
         <v>4.6263412578063387E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="20">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="19">
+        <v>47085.23828125</v>
+      </c>
+      <c r="D5" s="19">
+        <v>6771.5498046875</v>
+      </c>
+      <c r="E5" s="19">
+        <v>23348.640625</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C4)/C4,"")</f>
+        <v>-5.3117668562714399E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D4)/D4,"")</f>
+        <v>-1.1736830084583764E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E4)/E4,"")</f>
+        <v>-2.039378116401714E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2184,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB728CC-3545-439B-8305-CE331A9F0964}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2260,6 +2399,23 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="18">
+        <v>3.8599999999999995E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="18">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20C543-EE98-46CA-9729-71B10A836BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA67290-BF8D-4B70-A80C-5C7919850A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -721,14 +721,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -958,8 +956,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E5" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E5" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E6" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -972,8 +970,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F6" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F6" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F7" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F7" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -987,8 +985,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1003,7 +1001,6 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{41D25D3A-81CA-4450-B7DF-F71343E59E89}" name="Tabla7" displayName="Tabla7" ref="A1:N2" totalsRowShown="0">
-  <autoFilter ref="A1:N2" xr:uid="{41D25D3A-81CA-4450-B7DF-F71343E59E89}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{4B709A46-FEF4-4082-A1C7-4443452E16C3}" name="Año"/>
     <tableColumn id="2" xr3:uid="{288E25E9-721A-4984-9062-39446AEF10A2}" name="Fecha" dataDxfId="16"/>
@@ -1025,8 +1022,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H5" totalsRowShown="0">
-  <autoFilter ref="A1:H5" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1344,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,10 +1423,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>2025</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="1">
         <v>45965</v>
       </c>
       <c r="C5" s="2">
@@ -1440,6 +1437,23 @@
       </c>
       <c r="E5" s="2">
         <v>18.587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18.5947</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18.628</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18.574000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1469,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,10 +1580,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1">
         <v>45966</v>
       </c>
       <c r="C6" s="12">
@@ -1583,6 +1597,26 @@
       </c>
       <c r="F6" s="12">
         <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45967</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7.8899999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1598,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,10 +1746,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1">
         <v>45966</v>
       </c>
       <c r="C6" s="12">
@@ -1729,6 +1763,26 @@
       </c>
       <c r="F6" s="12">
         <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45967</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7.8899999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1741,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B7A3E5-7422-42F6-B226-5BFEA691299B}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,7 +1989,7 @@
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="1">
         <v>45965</v>
       </c>
       <c r="C5" s="13">
@@ -1973,6 +2027,50 @@
       </c>
       <c r="N5" s="5">
         <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.9599999999999996E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3.7599999999999995E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4.7400000000000005E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1985,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2110,19 +2208,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
-        <v>2025</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="1">
         <v>45965</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5">
         <v>47085.23828125</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5">
         <v>6771.5498046875</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5">
         <v>23348.640625</v>
       </c>
       <c r="F5" s="5">
@@ -2136,6 +2234,35 @@
       <c r="H5" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E4)/E4,"")</f>
         <v>-2.039378116401714E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C6" s="18">
+        <v>47311</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6796.2900390625</v>
+      </c>
+      <c r="E6" s="18">
+        <v>23499.796875</v>
+      </c>
+      <c r="F6" s="14">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C5)/C5,"")</f>
+        <v>4.7947451683578177E-3</v>
+      </c>
+      <c r="G6" s="14">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D5)/D5,"")</f>
+        <v>3.6535556982648133E-3</v>
+      </c>
+      <c r="H6" s="14">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E5)/E5,"")</f>
+        <v>6.4738779626490571E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2453,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2400,19 +2527,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
-        <v>2025</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="1">
         <v>45965</v>
       </c>
-      <c r="C5" s="18">
-        <v>3.8599999999999995E-2</v>
+      <c r="C5" s="16">
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="D5" s="8">
         <v>0.04</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA67290-BF8D-4B70-A80C-5C7919850A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A9B3DD-1147-4B0C-8305-E47E78595CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -722,11 +722,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -956,8 +957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E6" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E7" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E7" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -970,8 +971,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F7" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F7" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F8" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F8" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -985,8 +986,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1022,8 +1023,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1341,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,6 +1455,23 @@
       </c>
       <c r="E6" s="2">
         <v>18.574000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="15">
+        <v>45967</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18.6233</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18.66</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18.553000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1487,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,6 +1637,26 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="17">
+        <v>45968</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.8799999999999995E-2</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
     </row>
@@ -1632,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="A8" activeCellId="1" sqref="A7:F7 A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,23 +1804,43 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45967</v>
+      <c r="A7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="17">
+        <v>45968</v>
       </c>
       <c r="C7" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>7.7700000000000005E-2</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>7.8200000000000006E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>7.8899999999999998E-2</v>
+        <v>7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="17">
+        <v>45968</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.8799999999999995E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1795,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B7A3E5-7422-42F6-B226-5BFEA691299B}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,7 +2088,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6">
         <v>2025</v>
       </c>
       <c r="B6" s="1">
@@ -2071,6 +2129,50 @@
       </c>
       <c r="N6" s="5">
         <v>4.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="17">
+        <v>45967</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.0199999999999993E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.7599999999999995E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>4.1100000000000005E-2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4.6900000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2083,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2237,32 +2339,61 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6">
         <v>2025</v>
       </c>
       <c r="B6" s="1">
         <v>45966</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6">
         <v>47311</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6">
         <v>6796.2900390625</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6">
         <v>23499.796875</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C5)/C5,"")</f>
         <v>4.7947451683578177E-3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="5">
         <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D5)/D5,"")</f>
         <v>3.6535556982648133E-3</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E5)/E5,"")</f>
         <v>6.4738779626490571E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="19">
+        <v>45967</v>
+      </c>
+      <c r="C7" s="18">
+        <v>46912.30078125</v>
+      </c>
+      <c r="D7" s="18">
+        <v>6720.31982421875</v>
+      </c>
+      <c r="E7" s="18">
+        <v>23053.9921875</v>
+      </c>
+      <c r="F7" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C6)/C6,"")</f>
+        <v>-8.4271991450191285E-3</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D6)/D6,"")</f>
+        <v>-1.1178189042419025E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E6)/E6,"")</f>
+        <v>-1.8970576208437971E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB728CC-3545-439B-8305-CE331A9F0964}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2533,7 +2664,7 @@
       <c r="B5" s="1">
         <v>45965</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="D5" s="8">

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A9B3DD-1147-4B0C-8305-E47E78595CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0597D8-7437-4524-9595-ED568515DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -723,9 +723,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -957,8 +955,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E7" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E7" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E8" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -971,8 +969,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F8" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F8" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F9" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F9" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -986,8 +984,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1023,8 +1021,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H8" totalsRowShown="0">
+  <autoFilter ref="A1:H8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1342,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,10 +1456,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
         <v>45967</v>
       </c>
       <c r="C7" s="2">
@@ -1472,6 +1470,23 @@
       </c>
       <c r="E7" s="2">
         <v>18.553000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45968</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18.529</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18.446999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1502,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,10 +1653,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="1">
         <v>45968</v>
       </c>
       <c r="C8" s="3">
@@ -1658,6 +1673,24 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.6200000000000004E-2</v>
+      </c>
       <c r="G9" s="9"/>
     </row>
   </sheetData>
@@ -1670,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="A7:F7 A8:F8"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,10 +1837,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
         <v>45968</v>
       </c>
       <c r="C7" s="3">
@@ -1824,10 +1857,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="1">
         <v>45968</v>
       </c>
       <c r="C8" s="3">
@@ -1841,6 +1874,26 @@
       </c>
       <c r="F8" s="3">
         <v>7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.6200000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1853,10 +1906,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B7A3E5-7422-42F6-B226-5BFEA691299B}">
-  <dimension ref="A1:N7"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,10 +2188,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
         <v>45967</v>
       </c>
       <c r="C7" s="5">
@@ -2173,6 +2229,47 @@
       </c>
       <c r="N7" s="5">
         <v>4.6900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>45968</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.7599999999999995E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3.6699999999999997E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4.1100000000000005E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>4.6799999999999994E-2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4.7E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2185,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2368,19 +2465,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
         <v>45967</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7">
         <v>46912.30078125</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7">
         <v>6720.31982421875</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7">
         <v>23053.9921875</v>
       </c>
       <c r="F7" s="5">
@@ -2394,6 +2491,35 @@
       <c r="H7" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E6)/E6,"")</f>
         <v>-1.8970576208437971E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45968</v>
+      </c>
+      <c r="C8" s="16">
+        <v>46987.1015625</v>
+      </c>
+      <c r="D8" s="16">
+        <v>6728.7998046875</v>
+      </c>
+      <c r="E8" s="16">
+        <v>23004.5390625</v>
+      </c>
+      <c r="F8" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C7)/C7,"")</f>
+        <v>1.5944811915917908E-3</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D7)/D7,"")</f>
+        <v>1.2618418007711134E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E7)/E7,"")</f>
+        <v>-2.1451002758131302E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB728CC-3545-439B-8305-CE331A9F0964}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0597D8-7437-4524-9595-ED568515DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962D00F-CAE1-437F-A662-9EF5726A817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -722,10 +722,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -955,8 +960,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E8" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E10" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E10" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -969,8 +974,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F9" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F9" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F11" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F11" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -984,8 +989,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F11" totalsRowShown="0">
+  <autoFilter ref="A1:F11" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1021,8 +1026,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H10" totalsRowShown="0">
+  <autoFilter ref="A1:H10" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1340,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,6 +1494,40 @@
         <v>18.446999999999999</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45971</v>
+      </c>
+      <c r="C9" s="2">
+        <v>18.392199999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18.411999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18.367999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="14">
+        <v>45972</v>
+      </c>
+      <c r="C10" s="2">
+        <v>18.333300000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18.364000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18.314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1499,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FE10B-CC5B-4887-BA9F-8638E71CB003}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,6 +1732,46 @@
       </c>
       <c r="G9" s="9"/>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="16">
+        <v>45972</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="16">
+        <v>45973</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1703,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,23 +1916,23 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45968</v>
+      <c r="A7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="16">
+        <v>45967</v>
       </c>
       <c r="C7" s="3">
-        <v>7.2499999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>7.7600000000000002E-2</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>7.8100000000000003E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>7.8799999999999995E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,7 +1956,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9">
         <v>2025</v>
       </c>
       <c r="B9" s="1">
@@ -1893,6 +1972,46 @@
         <v>7.5600000000000001E-2</v>
       </c>
       <c r="F9" s="3">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="16">
+        <v>45972</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="16">
+        <v>45973</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.51E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F11" s="3">
         <v>7.6200000000000004E-2</v>
       </c>
     </row>
@@ -1909,10 +2028,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,7 +2042,7 @@
     <col min="13" max="15" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +2086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -2011,7 +2130,7 @@
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -2055,7 +2174,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2099,7 +2218,7 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -2143,7 +2262,7 @@
         <v>4.6699999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -2187,7 +2306,7 @@
         <v>4.7400000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -2231,11 +2350,11 @@
         <v>4.6900000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>45968</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="4">
         <v>3.9300000000000002E-2</v>
       </c>
       <c r="D8" s="5">
@@ -2271,6 +2390,48 @@
       <c r="N8" s="5">
         <v>4.7E-2</v>
       </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="21">
+        <v>45971</v>
+      </c>
+      <c r="C9" s="17">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.56E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3.7200000000000004E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4.1299999999999996E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>4.6900000000000004E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="O9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2282,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2500,13 +2661,13 @@
       <c r="B8" s="1">
         <v>45968</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8">
         <v>46987.1015625</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>6728.7998046875</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8">
         <v>23004.5390625</v>
       </c>
       <c r="F8" s="5">
@@ -2520,6 +2681,64 @@
       <c r="H8" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E7)/E7,"")</f>
         <v>-2.1451002758131302E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="19">
+        <v>45971</v>
+      </c>
+      <c r="C9" s="18">
+        <v>47368.62890625</v>
+      </c>
+      <c r="D9" s="18">
+        <v>6832.43017578125</v>
+      </c>
+      <c r="E9" s="18">
+        <v>23527.169921875</v>
+      </c>
+      <c r="F9" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C8)/C8,"")</f>
+        <v>8.1198314231515339E-3</v>
+      </c>
+      <c r="G9" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D8)/D8,"")</f>
+        <v>1.5401018621709882E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E8)/E8,"")</f>
+        <v>2.2718597314864152E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="19">
+        <v>45972</v>
+      </c>
+      <c r="C10" s="18">
+        <v>47927.9609375</v>
+      </c>
+      <c r="D10" s="18">
+        <v>6846.60986328125</v>
+      </c>
+      <c r="E10" s="18">
+        <v>23468.30078125</v>
+      </c>
+      <c r="F10" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C9)/C9,"")</f>
+        <v>1.1808068845670126E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D9)/D9,"")</f>
+        <v>2.0753505173404328E-3</v>
+      </c>
+      <c r="H10" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E9)/E9,"")</f>
+        <v>-2.5021768797727295E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB728CC-3545-439B-8305-CE331A9F0964}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2800,6 +3019,57 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="21">
+        <v>45968</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="21">
+        <v>45971</v>
+      </c>
+      <c r="C7" s="17">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="21">
+        <v>45972</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962D00F-CAE1-437F-A662-9EF5726A817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839ED2D-FFB0-4EF8-A9BF-5C7E1303C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -722,15 +722,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -960,8 +959,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E10" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E10" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E11" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E11" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -974,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F11" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F11" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F12" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F12" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -989,8 +988,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F12" totalsRowShown="0">
+  <autoFilter ref="A1:F12" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1026,8 +1025,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H10" totalsRowShown="0">
-  <autoFilter ref="A1:H10" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H11" totalsRowShown="0">
+  <autoFilter ref="A1:H11" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1345,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1497,7 @@
       <c r="A9">
         <v>2025</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="1">
         <v>45971</v>
       </c>
       <c r="C9" s="2">
@@ -1515,7 +1514,7 @@
       <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="1">
         <v>45972</v>
       </c>
       <c r="C10" s="2">
@@ -1526,6 +1525,23 @@
       </c>
       <c r="E10" s="2">
         <v>18.314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="18">
+        <v>45973</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18.298200000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18.317</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18.292999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1538,11 +1554,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FE10B-CC5B-4887-BA9F-8638E71CB003}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1736,7 +1750,7 @@
       <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="1">
         <v>45972</v>
       </c>
       <c r="C10" s="3">
@@ -1753,10 +1767,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="1">
         <v>45973</v>
       </c>
       <c r="C11" s="3">
@@ -1770,6 +1784,26 @@
       </c>
       <c r="F11" s="3">
         <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="15">
+        <v>45974</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.6300000000000007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1782,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,10 +1950,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
         <v>45967</v>
       </c>
       <c r="C7" s="3">
@@ -1976,10 +2010,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="1">
         <v>45972</v>
       </c>
       <c r="C10" s="3">
@@ -1996,10 +2030,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>2025</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="1">
         <v>45973</v>
       </c>
       <c r="C11" s="3">
@@ -2013,6 +2047,26 @@
       </c>
       <c r="F11" s="3">
         <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="15">
+        <v>45974</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.6300000000000007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2028,10 +2082,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,10 +2446,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="21">
+      <c r="B9" s="1">
         <v>45971</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="4">
         <v>3.95E-2</v>
       </c>
       <c r="D9" s="5">
@@ -2431,7 +2485,48 @@
       <c r="N9" s="5">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
+        <v>45973</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.78E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.56E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3.8599999999999995E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4.6500000000000007E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="O10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2443,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2684,19 +2779,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>2025</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="1">
         <v>45971</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9">
         <v>47368.62890625</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9">
         <v>6832.43017578125</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9">
         <v>23527.169921875</v>
       </c>
       <c r="F9" s="5">
@@ -2713,19 +2808,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="1">
         <v>45972</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10">
         <v>47927.9609375</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10">
         <v>6846.60986328125</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10">
         <v>23468.30078125</v>
       </c>
       <c r="F10" s="5">
@@ -2739,6 +2834,35 @@
       <c r="H10" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E9)/E9,"")</f>
         <v>-2.5021768797727295E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="21">
+        <v>45973</v>
+      </c>
+      <c r="C11" s="20">
+        <v>48254.8203125</v>
+      </c>
+      <c r="D11" s="20">
+        <v>6850.919921875</v>
+      </c>
+      <c r="E11" s="20">
+        <v>23406.4609375</v>
+      </c>
+      <c r="F11" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C10)/C10,"")</f>
+        <v>6.8198055708282241E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D10)/D10,"")</f>
+        <v>6.2951718877178684E-4</v>
+      </c>
+      <c r="H11" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E10)/E10,"")</f>
+        <v>-2.6350371220487741E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2928,7 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB728CC-3545-439B-8305-CE331A9F0964}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -3023,50 +3147,50 @@
       <c r="A6">
         <v>2025</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="1">
         <v>45968</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="D6" s="8">
         <v>0.04</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
         <v>45971</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="D7" s="8">
         <v>0.04</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="1">
         <v>45972</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="D8" s="8">
         <v>0.04</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>

--- a/tipo_cambio_tasas_interes.xlsx
+++ b/tipo_cambio_tasas_interes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839ED2D-FFB0-4EF8-A9BF-5C7E1303C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9FF9E-3402-45B3-89EB-F56222AB323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{30335E2C-89DA-4C79-B82F-6F6D648259F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo de Cambio" sheetId="1" r:id="rId1"/>
@@ -722,12 +722,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -959,8 +959,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E11" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
-  <autoFilter ref="A1:E11" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}" name="Tabla1" displayName="Tabla1" ref="A1:E12" totalsRowShown="0" dataDxfId="28" dataCellStyle="Moneda">
+  <autoFilter ref="A1:E12" xr:uid="{89FEBF79-34BE-422C-9B3B-1ABEB5D5A6E9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E09B427-5E44-4BBB-89FC-35463079BE46}" name="Año"/>
     <tableColumn id="2" xr3:uid="{3D7466AA-D045-44D9-96B5-BDFB7062F58C}" name="Fecha" dataDxfId="27"/>
@@ -973,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F12" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:F12" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}" name="Tabla2" displayName="Tabla2" ref="A1:F13" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:F13" xr:uid="{F4FA084B-10DE-49EA-A77A-CF0EB874CD28}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B700B119-8C38-4F55-BC79-C4D6BC8E0C88}" name="Año"/>
     <tableColumn id="2" xr3:uid="{47E09E7D-A904-4405-9048-49D33EE0E8EB}" name="Fecha" dataDxfId="22"/>
@@ -988,8 +988,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F12" totalsRowShown="0">
-  <autoFilter ref="A1:F12" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}" name="Tabla24" displayName="Tabla24" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{4E717856-AEC4-4D15-83FE-EF067029218F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E0B3A81-10BF-4919-93D3-DFCB7943009F}" name="Año"/>
     <tableColumn id="2" xr3:uid="{4DDFFDA1-F291-46D8-8D65-F7040EF322C5}" name="Fecha" dataDxfId="17"/>
@@ -1025,8 +1025,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H11" totalsRowShown="0">
-  <autoFilter ref="A1:H11" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}" name="Tabla8" displayName="Tabla8" ref="A1:H12" totalsRowShown="0">
+  <autoFilter ref="A1:H12" xr:uid="{E8483F90-A69D-4E36-9F78-F36E94A075B5}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7676C863-947F-4296-8B2C-4C1C2493E9D9}" name="Año"/>
     <tableColumn id="2" xr3:uid="{55C318C8-9926-4D62-8294-177D6BC0FE75}" name="Fecha" dataDxfId="3"/>
@@ -1344,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B4731-B44C-4F20-9A44-95C4BD8A73FF}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,10 +1528,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>2025</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="1">
         <v>45973</v>
       </c>
       <c r="C11" s="2">
@@ -1542,6 +1542,23 @@
       </c>
       <c r="E11" s="2">
         <v>18.292999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45974</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18.2805</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18.338999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18.257999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1554,9 +1571,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FE10B-CC5B-4887-BA9F-8638E71CB003}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1790,7 +1809,7 @@
       <c r="A12">
         <v>2025</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="1">
         <v>45974</v>
       </c>
       <c r="C12" s="3">
@@ -1803,6 +1822,26 @@
         <v>7.5700000000000003E-2</v>
       </c>
       <c r="F12" s="3">
+        <v>7.6300000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>2025</v>
+      </c>
+      <c r="B13" s="18">
+        <v>45975</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="F13" s="3">
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
@@ -1816,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4FBFFC-676F-4493-85F5-BF4178BC747B}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2049,11 +2088,11 @@
         <v>7.6200000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>2025</v>
-      </c>
-      <c r="B12" s="15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="1">
         <v>45974</v>
       </c>
       <c r="C12" s="3">
@@ -2066,6 +2105,26 @@
         <v>7.5700000000000003E-2</v>
       </c>
       <c r="F12" s="3">
+        <v>7.6300000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>2025</v>
+      </c>
+      <c r="B13" s="18">
+        <v>45975</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="F13" s="3">
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
@@ -2082,10 +2141,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2487,10 +2546,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
+      <c r="B10" s="1">
         <v>45973</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="D10" s="5">
@@ -2527,6 +2586,56 @@
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <v>45974</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.9599999999999996E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3.8900000000000004E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4.1100000000000005E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <v>4.6900000000000004E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F7ED1-F67A-4D3F-B065-CA644B535717}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2837,19 +2946,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>2025</v>
-      </c>
-      <c r="B11" s="21">
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="1">
         <v>45973</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11">
         <v>48254.8203125</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>6850.919921875</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>23406.4609375</v>
       </c>
       <c r="F11" s="5">
@@ -2863,6 +2972,35 @@
       <c r="H11" s="5">
         <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E10)/E10,"")</f>
         <v>-2.6350371220487741E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="16">
+        <v>45974</v>
+      </c>
+      <c r="C12" s="15">
+        <v>47457.21875</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6737.490234375</v>
+      </c>
+      <c r="E12" s="15">
+        <v>22870.35546875</v>
+      </c>
+      <c r="F12" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Dow Jones]]-C11)/C11,"")</f>
+        <v>-1.6528951042293863E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[S&amp;P 500]]-D11)/D11,"")</f>
+        <v>-1.6556854961597027E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <f>IFERROR((Tabla8[[#This Row],[Nasdaq]]-E11)/E11,"")</f>
+        <v>-2.2904166083950513E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2965,10 +3103,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9B52AB-9F4D-4048-B6BB-4409FE75ED91}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3043,6 +3181,20 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3050,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB728CC-3545-439B-8305-CE331A9F0964}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3194,6 +3346,23 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="21">
+        <v>45973</v>
+      </c>
+      <c r="C9" s="19">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
